--- a/reports/resnet18_23_no_MMTM/prediction/3/probability_train_3.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/3/probability_train_3.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7164204120635986</v>
+        <v>0.6062764525413513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2835795879364014</v>
+        <v>0.3937235474586487</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1066762804985046</v>
+        <v>0.06915993243455887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8933237195014954</v>
+        <v>0.9308400750160217</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4037779569625854</v>
+        <v>0.07806201279163361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5962220430374146</v>
+        <v>0.9219379425048828</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2480794191360474</v>
+        <v>0.2151287049055099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7519205808639526</v>
+        <v>0.7848713397979736</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1913749575614929</v>
+        <v>0.3095121681690216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8086250424385071</v>
+        <v>0.6904878616333008</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3176807761192322</v>
+        <v>0.1866612881422043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.682319164276123</v>
+        <v>0.8133387565612793</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2472512573003769</v>
+        <v>0.1880261898040771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7527487277984619</v>
+        <v>0.8119738101959229</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3186144828796387</v>
+        <v>0.5664492845535278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6813855171203613</v>
+        <v>0.4335506856441498</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05570751801133156</v>
+        <v>0.1184893399477005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9442925453186035</v>
+        <v>0.8815106749534607</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1001109033823013</v>
+        <v>0.2129700183868408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8998891115188599</v>
+        <v>0.7870299816131592</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9483373165130615</v>
+        <v>0.8796068429946899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05166267603635788</v>
+        <v>0.1203931272029877</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09720759093761444</v>
+        <v>0.145935982465744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9027924537658691</v>
+        <v>0.8540640473365784</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05845769867300987</v>
+        <v>0.06298653781414032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9415422677993774</v>
+        <v>0.9370135068893433</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06412477791309357</v>
+        <v>0.03602574393153191</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9358752369880676</v>
+        <v>0.9639742970466614</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.891934871673584</v>
+        <v>0.9919509887695312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.108065128326416</v>
+        <v>0.008049033582210541</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9122441411018372</v>
+        <v>0.9484274387359619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08775588124990463</v>
+        <v>0.05157254636287689</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1463709026575089</v>
+        <v>0.06161624938249588</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8536291122436523</v>
+        <v>0.9383836984634399</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1955771446228027</v>
+        <v>0.1236204653978348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8044228553771973</v>
+        <v>0.8763796091079712</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9791442155838013</v>
+        <v>0.9815487861633301</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02085574716329575</v>
+        <v>0.01845120266079903</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2699753642082214</v>
+        <v>0.2443751990795135</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7300246357917786</v>
+        <v>0.7556247711181641</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4488241672515869</v>
+        <v>0.4640104174613953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5511758327484131</v>
+        <v>0.5359895825386047</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1301818341016769</v>
+        <v>0.1368269026279449</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8698181509971619</v>
+        <v>0.8631731271743774</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5766868591308594</v>
+        <v>0.2364908009767532</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4233131408691406</v>
+        <v>0.7635091543197632</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2156373858451843</v>
+        <v>0.1914372146129608</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7843625545501709</v>
+        <v>0.8085627555847168</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.418160617351532</v>
+        <v>0.05645877867937088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.581839382648468</v>
+        <v>0.9435412287712097</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.05567270144820213</v>
+        <v>0.04539450258016586</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9443273544311523</v>
+        <v>0.9546054601669312</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9446507692337036</v>
+        <v>0.9434061050415039</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05534931272268295</v>
+        <v>0.05659393966197968</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1006732881069183</v>
+        <v>0.3483036160469055</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8993266820907593</v>
+        <v>0.6516964435577393</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9236282110214233</v>
+        <v>0.7058924436569214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07637173682451248</v>
+        <v>0.2941074967384338</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09867569804191589</v>
+        <v>0.06718729436397552</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9013242721557617</v>
+        <v>0.9328126907348633</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.7660229206085205</v>
+        <v>0.8061815500259399</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2339771240949631</v>
+        <v>0.1938184350728989</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3936785757541656</v>
+        <v>0.5124698877334595</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6063214540481567</v>
+        <v>0.4875301122665405</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.08304811269044876</v>
+        <v>0.1147830486297607</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9169518947601318</v>
+        <v>0.8852169513702393</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.7994746565818787</v>
+        <v>0.9082574844360352</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2005253285169601</v>
+        <v>0.09174252301454544</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5688518285751343</v>
+        <v>0.6907541751861572</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4311482012271881</v>
+        <v>0.3092458546161652</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1150294542312622</v>
+        <v>0.1037479043006897</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8849705457687378</v>
+        <v>0.8962520360946655</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07240810245275497</v>
+        <v>0.05706296116113663</v>
       </c>
       <c r="C38" t="n">
-        <v>0.927591860294342</v>
+        <v>0.9429370164871216</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9554394483566284</v>
+        <v>0.9769629240036011</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04456056654453278</v>
+        <v>0.02303710207343102</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8691320419311523</v>
+        <v>0.9843161106109619</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1308679431676865</v>
+        <v>0.01568393968045712</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3078064620494843</v>
+        <v>0.2119042873382568</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6921935081481934</v>
+        <v>0.7880957126617432</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1981846839189529</v>
+        <v>0.0415714830160141</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8018152713775635</v>
+        <v>0.9584285020828247</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3604021966457367</v>
+        <v>0.1903251856565475</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6395977735519409</v>
+        <v>0.8096747994422913</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05570147559046745</v>
+        <v>0.08747740089893341</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9442985057830811</v>
+        <v>0.912522554397583</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8928134441375732</v>
+        <v>0.9590530395507812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1071865260601044</v>
+        <v>0.04094690084457397</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4351615309715271</v>
+        <v>0.5402095317840576</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5648384690284729</v>
+        <v>0.4597905278205872</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.442535936832428</v>
+        <v>0.263018012046814</v>
       </c>
       <c r="C47" t="n">
-        <v>0.557464063167572</v>
+        <v>0.736981987953186</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9261223077774048</v>
+        <v>0.9282155632972717</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07387769222259521</v>
+        <v>0.07178445905447006</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2012368887662888</v>
+        <v>0.08320139348506927</v>
       </c>
       <c r="C49" t="n">
-        <v>0.79876309633255</v>
+        <v>0.9167986512184143</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2316151559352875</v>
+        <v>0.1649855673313141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7683848142623901</v>
+        <v>0.8350144028663635</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1921079009771347</v>
+        <v>0.3552209436893463</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8078920841217041</v>
+        <v>0.6447790861129761</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1914252638816833</v>
+        <v>0.05503793060779572</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8085747361183167</v>
+        <v>0.9449620842933655</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6661099195480347</v>
+        <v>0.4142389297485352</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3338900804519653</v>
+        <v>0.5857610702514648</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.08951473236083984</v>
+        <v>0.08685462176799774</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9104852676391602</v>
+        <v>0.9131454229354858</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05621147155761719</v>
+        <v>0.08873914182186127</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9437885284423828</v>
+        <v>0.9112608432769775</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.09248616546392441</v>
+        <v>0.1230863034725189</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9075138568878174</v>
+        <v>0.8769136667251587</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1685913056135178</v>
+        <v>0.1155661791563034</v>
       </c>
       <c r="C57" t="n">
-        <v>0.831408679485321</v>
+        <v>0.8844338059425354</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.7490917444229126</v>
+        <v>0.8945562839508057</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250908225774765</v>
+        <v>0.1054437458515167</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.08422620594501495</v>
+        <v>0.1058929413557053</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9157738089561462</v>
+        <v>0.8941070437431335</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1599269807338715</v>
+        <v>0.1629620492458344</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8400730490684509</v>
+        <v>0.8370379209518433</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.626067042350769</v>
+        <v>0.5131341218948364</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3739330172538757</v>
+        <v>0.4868658185005188</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.04861989617347717</v>
+        <v>0.1076821833848953</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9513800740242004</v>
+        <v>0.8923177719116211</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.143540546298027</v>
+        <v>0.09125528484582901</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8564594388008118</v>
+        <v>0.9087446928024292</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.05138574913144112</v>
+        <v>0.06306057423353195</v>
       </c>
       <c r="C64" t="n">
-        <v>0.948614239692688</v>
+        <v>0.9369394779205322</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2378425151109695</v>
+        <v>0.1766968667507172</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7621574401855469</v>
+        <v>0.8233031034469604</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.04460602998733521</v>
+        <v>0.06317682564258575</v>
       </c>
       <c r="C66" t="n">
-        <v>0.95539391040802</v>
+        <v>0.9368231296539307</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1485616117715836</v>
+        <v>0.09375303238630295</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8514384031295776</v>
+        <v>0.9062469601631165</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1449593305587769</v>
+        <v>0.09623652696609497</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8550406694412231</v>
+        <v>0.9037634134292603</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3224908113479614</v>
+        <v>0.5744632482528687</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6775091886520386</v>
+        <v>0.4255367517471313</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3295706510543823</v>
+        <v>0.2762812376022339</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6704293489456177</v>
+        <v>0.7237187623977661</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9620693922042847</v>
+        <v>0.9868016242980957</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03793061152100563</v>
+        <v>0.01319845020771027</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1763387471437454</v>
+        <v>0.1314285546541214</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8236613273620605</v>
+        <v>0.8685714602470398</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9605884552001953</v>
+        <v>0.99024498462677</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03941153734922409</v>
+        <v>0.009755044244229794</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1690610349178314</v>
+        <v>0.6126114726066589</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8309389352798462</v>
+        <v>0.3873884677886963</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5286069512367249</v>
+        <v>0.2732333540916443</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4713930189609528</v>
+        <v>0.7267665863037109</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5372341871261597</v>
+        <v>0.6413339376449585</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4627658426761627</v>
+        <v>0.3586660623550415</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.2225410938262939</v>
+        <v>0.3580553829669952</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7774589061737061</v>
+        <v>0.6419446468353271</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1907346993684769</v>
+        <v>0.1225537359714508</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8092653155326843</v>
+        <v>0.8774462342262268</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2082573473453522</v>
+        <v>0.07791358232498169</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7917426824569702</v>
+        <v>0.9220863580703735</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6044223308563232</v>
+        <v>0.7947143316268921</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3955776691436768</v>
+        <v>0.2052856236696243</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2481820434331894</v>
+        <v>0.1160862296819687</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7518179416656494</v>
+        <v>0.8839137554168701</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9716638326644897</v>
+        <v>0.9895133972167969</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02833611890673637</v>
+        <v>0.01048665400594473</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05841969698667526</v>
+        <v>0.0137425372377038</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9415803551673889</v>
+        <v>0.9862574934959412</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2914515137672424</v>
+        <v>0.110159270465374</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7085484862327576</v>
+        <v>0.8898407220840454</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9447121024131775</v>
+        <v>0.9863711595535278</v>
       </c>
       <c r="C85" t="n">
-        <v>0.05528790131211281</v>
+        <v>0.01362879946827888</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06606801599264145</v>
+        <v>0.09968135505914688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9339320063591003</v>
+        <v>0.9003186225891113</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1551451832056046</v>
+        <v>0.1675605475902557</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8448548316955566</v>
+        <v>0.8324394226074219</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.6203348636627197</v>
+        <v>0.5262982845306396</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3796650767326355</v>
+        <v>0.473701685667038</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.05927824974060059</v>
+        <v>0.059470035135746</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9407217502593994</v>
+        <v>0.9405299425125122</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1935193091630936</v>
+        <v>0.1252848356962204</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8064806461334229</v>
+        <v>0.8747152090072632</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.8887466192245483</v>
+        <v>0.9235068559646606</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1112533956766129</v>
+        <v>0.07649311423301697</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.8818615674972534</v>
+        <v>0.9065350294113159</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1181383952498436</v>
+        <v>0.09346500039100647</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.09538455307483673</v>
+        <v>0.0883275493979454</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9046154022216797</v>
+        <v>0.9116724133491516</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4151962101459503</v>
+        <v>0.3021559119224548</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5848038196563721</v>
+        <v>0.6978440880775452</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1883942782878876</v>
+        <v>0.09526578336954117</v>
       </c>
       <c r="C95" t="n">
-        <v>0.81160569190979</v>
+        <v>0.904734194278717</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.06835027784109116</v>
+        <v>0.1100030690431595</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9316496849060059</v>
+        <v>0.8899969458580017</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.552065372467041</v>
+        <v>0.5602586269378662</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4479345977306366</v>
+        <v>0.4397414028644562</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.134292334318161</v>
+        <v>0.1270664781332016</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8657076954841614</v>
+        <v>0.8729335069656372</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1336177289485931</v>
+        <v>0.1290589272975922</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8663822412490845</v>
+        <v>0.8709410429000854</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.05403568223118782</v>
+        <v>0.08458526432514191</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9459643363952637</v>
+        <v>0.9154146909713745</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4110031723976135</v>
+        <v>0.3580129742622375</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5889967679977417</v>
+        <v>0.6419869661331177</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.5167369842529297</v>
+        <v>0.5938467383384705</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4832630157470703</v>
+        <v>0.4061532020568848</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.7633591890335083</v>
+        <v>0.7833904027938843</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2366408109664917</v>
+        <v>0.2166095525026321</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.7588149309158325</v>
+        <v>0.7510230541229248</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2411851137876511</v>
+        <v>0.248976930975914</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.5940951704978943</v>
+        <v>0.2894335985183716</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4059048891067505</v>
+        <v>0.7105664014816284</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.03368382900953293</v>
+        <v>0.05253516510128975</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9663161635398865</v>
+        <v>0.9474648237228394</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3292656540870667</v>
+        <v>0.4024670124053955</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6707344055175781</v>
+        <v>0.5975329875946045</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.09110923111438751</v>
+        <v>0.05666433274745941</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9088907837867737</v>
+        <v>0.9433356523513794</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.03038129024207592</v>
+        <v>0.07118740677833557</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9696186780929565</v>
+        <v>0.9288126230239868</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.2020513713359833</v>
+        <v>0.1163509786128998</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7979485988616943</v>
+        <v>0.8836489915847778</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.461407482624054</v>
+        <v>0.4137702286243439</v>
       </c>
       <c r="C111" t="n">
-        <v>0.538592517375946</v>
+        <v>0.5862298011779785</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9691744446754456</v>
+        <v>0.9885597229003906</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03082556091248989</v>
+        <v>0.01144033391028643</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.07321405410766602</v>
+        <v>0.104900136590004</v>
       </c>
       <c r="C113" t="n">
-        <v>0.926785945892334</v>
+        <v>0.8950998783111572</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.07026522606611252</v>
+        <v>0.03462351858615875</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9297348260879517</v>
+        <v>0.9653764963150024</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.4695626199245453</v>
+        <v>0.5848323106765747</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5304373502731323</v>
+        <v>0.4151677191257477</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9717954397201538</v>
+        <v>0.9707388877868652</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02820453234016895</v>
+        <v>0.02926118113100529</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0601210743188858</v>
+        <v>0.08776993304491043</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9398789405822754</v>
+        <v>0.9122301340103149</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.104528471827507</v>
+        <v>0.091114342212677</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8954715728759766</v>
+        <v>0.908885657787323</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.4596823453903198</v>
+        <v>0.7213168144226074</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5403176546096802</v>
+        <v>0.2786831557750702</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.5129657983779907</v>
+        <v>0.6211495399475098</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4870342314243317</v>
+        <v>0.378850519657135</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9470813870429993</v>
+        <v>0.9371611475944519</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05291860178112984</v>
+        <v>0.06283887475728989</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2562772631645203</v>
+        <v>0.3603474497795105</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7437227964401245</v>
+        <v>0.6396525502204895</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4259670078754425</v>
+        <v>0.1451205164194107</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5740330219268799</v>
+        <v>0.8548794984817505</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1859675496816635</v>
+        <v>0.4344654381275177</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8140324354171753</v>
+        <v>0.5655345320701599</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.5273047685623169</v>
+        <v>0.8444883227348328</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4726952016353607</v>
+        <v>0.155511662364006</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5543988943099976</v>
+        <v>0.6321111917495728</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4456011056900024</v>
+        <v>0.3678888082504272</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.7737877368927002</v>
+        <v>0.9255859851837158</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2262122929096222</v>
+        <v>0.07441402971744537</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.2712862193584442</v>
+        <v>0.2078321874141693</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7287137508392334</v>
+        <v>0.7921677827835083</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.09446193277835846</v>
+        <v>0.1347834169864655</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9055380821228027</v>
+        <v>0.8652166128158569</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.08256745338439941</v>
+        <v>0.1684948056936264</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9174325466156006</v>
+        <v>0.8315051794052124</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1826844066381454</v>
+        <v>0.1138223558664322</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8173155784606934</v>
+        <v>0.8861775994300842</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1883523017168045</v>
+        <v>0.09843461960554123</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8116476535797119</v>
+        <v>0.9015653133392334</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.4581126868724823</v>
+        <v>0.3422381281852722</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5418874025344849</v>
+        <v>0.6577619314193726</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1397207379341125</v>
+        <v>0.08732441067695618</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8602792620658875</v>
+        <v>0.9126756191253662</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.2331187874078751</v>
+        <v>0.1458509266376495</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7668812274932861</v>
+        <v>0.8541490435600281</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.07173724472522736</v>
+        <v>0.2832797169685364</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9282627105712891</v>
+        <v>0.7167202830314636</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2400641739368439</v>
+        <v>0.07551388442516327</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7599358558654785</v>
+        <v>0.9244861602783203</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9237673282623291</v>
+        <v>0.9666357636451721</v>
       </c>
       <c r="C138" t="n">
-        <v>0.07623262703418732</v>
+        <v>0.03336420655250549</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.95041823387146</v>
+        <v>0.9796178340911865</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04958182573318481</v>
+        <v>0.02038214169442654</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1590951681137085</v>
+        <v>0.09475761651992798</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8409048318862915</v>
+        <v>0.905242383480072</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.905126690864563</v>
+        <v>0.9830255508422852</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0948733389377594</v>
+        <v>0.01697444729506969</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.1879994422197342</v>
+        <v>0.2227243036031723</v>
       </c>
       <c r="C142" t="n">
-        <v>0.812000572681427</v>
+        <v>0.7772756814956665</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.871126651763916</v>
+        <v>0.7236831784248352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.128873348236084</v>
+        <v>0.2763168215751648</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.5885255336761475</v>
+        <v>0.5609244704246521</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4114744663238525</v>
+        <v>0.4390755593776703</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.9096055030822754</v>
+        <v>0.989321231842041</v>
       </c>
       <c r="C145" t="n">
-        <v>0.09039455652236938</v>
+        <v>0.01067881751805544</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6525368690490723</v>
+        <v>0.5979839563369751</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3474631607532501</v>
+        <v>0.4020160138607025</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.118409775197506</v>
+        <v>0.1117870286107063</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8815902471542358</v>
+        <v>0.8882129788398743</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.203901618719101</v>
+        <v>0.1430827379226685</v>
       </c>
       <c r="C148" t="n">
-        <v>0.7960983514785767</v>
+        <v>0.8569172620773315</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1524627804756165</v>
+        <v>0.09695517271757126</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8475371599197388</v>
+        <v>0.9030448198318481</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.06401669234037399</v>
+        <v>0.09740814566612244</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9359833002090454</v>
+        <v>0.9025918245315552</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.9007222652435303</v>
+        <v>0.9265928864479065</v>
       </c>
       <c r="C151" t="n">
-        <v>0.09927775710821152</v>
+        <v>0.0734071210026741</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.4921836256980896</v>
+        <v>0.4864755868911743</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5078163743019104</v>
+        <v>0.5135244131088257</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.6805591583251953</v>
+        <v>0.6213582754135132</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3194408416748047</v>
+        <v>0.3786417245864868</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.2179053276777267</v>
+        <v>0.09480872005224228</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7820947170257568</v>
+        <v>0.9051912426948547</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.9428872466087341</v>
+        <v>0.9622412919998169</v>
       </c>
       <c r="C155" t="n">
-        <v>0.05711278319358826</v>
+        <v>0.03775868192315102</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.7649410963058472</v>
+        <v>0.6246272325515747</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2350588887929916</v>
+        <v>0.3753727972507477</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1152752041816711</v>
+        <v>0.0987149104475975</v>
       </c>
       <c r="C157" t="n">
-        <v>0.8847248554229736</v>
+        <v>0.9012850522994995</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.5600495338439941</v>
+        <v>0.5164593458175659</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4399504959583282</v>
+        <v>0.4835405945777893</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1817739754915237</v>
+        <v>0.3352538347244263</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8182260394096375</v>
+        <v>0.6647461652755737</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5887489318847656</v>
+        <v>0.4438188672065735</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4112510979175568</v>
+        <v>0.5561811923980713</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.4711301326751709</v>
+        <v>0.6694501638412476</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5288698673248291</v>
+        <v>0.3305498957633972</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.1880311071872711</v>
+        <v>0.07409824430942535</v>
       </c>
       <c r="C162" t="n">
-        <v>0.8119689226150513</v>
+        <v>0.9259017705917358</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.3172528743743896</v>
+        <v>0.3367603421211243</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6827471256256104</v>
+        <v>0.6632396578788757</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.2000442296266556</v>
+        <v>0.1255338042974472</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7999557256698608</v>
+        <v>0.8744661808013916</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.6360932588577271</v>
+        <v>0.9368482828140259</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3639067113399506</v>
+        <v>0.06315182149410248</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.8351216912269592</v>
+        <v>0.9290125966072083</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1648782938718796</v>
+        <v>0.07098741084337234</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.1350714564323425</v>
+        <v>0.1994677633047104</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8649285435676575</v>
+        <v>0.8005322217941284</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.5021575093269348</v>
+        <v>0.5875421166419983</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4978424906730652</v>
+        <v>0.4124578535556793</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.04740431532263756</v>
+        <v>0.09992156177759171</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9525956511497498</v>
+        <v>0.9000784158706665</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.2009975612163544</v>
+        <v>0.2232902050018311</v>
       </c>
       <c r="C170" t="n">
-        <v>0.799002468585968</v>
+        <v>0.7767097949981689</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.7654591798782349</v>
+        <v>0.9171111583709717</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2345408350229263</v>
+        <v>0.08288885653018951</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1184583678841591</v>
+        <v>0.5425217747688293</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8815416097640991</v>
+        <v>0.4574782252311707</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.4027089476585388</v>
+        <v>0.1762495338916779</v>
       </c>
       <c r="C173" t="n">
-        <v>0.597291111946106</v>
+        <v>0.8237504959106445</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
